--- a/biology/Botanique/Salix_wilsonii/Salix_wilsonii.xlsx
+++ b/biology/Botanique/Salix_wilsonii/Salix_wilsonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Salix wilsonii, le saule de Wilson, est une espèce de saule de la famille des Salicaceae[2],[3],[4].
+Salix wilsonii, le saule de Wilson, est une espèce de saule de la famille des Salicaceae.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix neowilsonii, Franch..
-A. K. Skvortsov indique que Salix dunnii, S. mesnyi, S. nankingensis, S. neowilsonii, S. rosthornii, S. warburgii, et S. wilsonii se ressemblent tellement qu'il faudrait les considérer comme une seule espèce variable et grandement répartie[5].
+A. K. Skvortsov indique que Salix dunnii, S. mesnyi, S. nankingensis, S. neowilsonii, S. rosthornii, S. warburgii, et S. wilsonii se ressemblent tellement qu'il faudrait les considérer comme une seule espèce variable et grandement répartie.
 D'où la création du taxon Salix sect. Wilsonia, incluant ces espèces.
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Aucune sous-espèce n'est énumérée dans Catalogue of Life[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Aucune sous-espèce n'est énumérée dans Catalogue of Life.</t>
         </is>
       </c>
     </row>
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre ou un arbuste à feuilles caduques, atteignant une hauteur de 2 m (jusqu'à 6 m dans son milieu naturel).
 </t>
